--- a/output_data/charts/shares-Logan.xlsx
+++ b/output_data/charts/shares-Logan.xlsx
@@ -16,40 +16,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Construction</t>
+    <t>Unclassified</t>
+  </si>
+  <si>
+    <t>Trade, transportation, and utilities</t>
+  </si>
+  <si>
+    <t>Public administration</t>
+  </si>
+  <si>
+    <t>Professional and business services</t>
+  </si>
+  <si>
+    <t>Other services</t>
+  </si>
+  <si>
+    <t>Natural resources and mining</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Leisure and hospitality</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Financial activities</t>
   </si>
   <si>
     <t>Education and health services</t>
   </si>
   <si>
-    <t>Financial activities</t>
-  </si>
-  <si>
-    <t>Information</t>
-  </si>
-  <si>
-    <t>Leisure and hospitality</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>Natural resources and mining</t>
-  </si>
-  <si>
-    <t>Other services</t>
-  </si>
-  <si>
-    <t>Professional and business services</t>
-  </si>
-  <si>
-    <t>Public administration</t>
-  </si>
-  <si>
-    <t>Trade, transportation, and utilities</t>
-  </si>
-  <si>
-    <t>Unclassified</t>
+    <t>Construction</t>
   </si>
   <si>
     <t>Year</t>
@@ -169,14 +169,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Construction</c:v>
+                  <c:v>Unclassified</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="1F77B4"/>
+              <a:srgbClr val="68AFFC"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -213,19 +213,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.038631891944966</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.101424979119978</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.24076691645142</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.997575491999153</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.257707992906518</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01696732699791554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01653076815951222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.005288486957841604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -240,14 +237,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Education and health services</c:v>
+                  <c:v>Trade, transportation, and utilities</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF7F0E"/>
+              <a:srgbClr val="4233A6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -284,19 +281,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>17.05603907480773</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.31454317883232</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.12680277359336</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.40974213009041</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.4198000741623</c:v>
+                  <c:v>23.30635718398824</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.84744342053065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.21701260081145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.39651753497872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.2746311014609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -311,14 +308,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Financial activities</c:v>
+                  <c:v>Public administration</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="2CA02C"/>
+              <a:srgbClr val="85E5DD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -355,19 +352,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.438031249427896</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.64040234708863</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.957977528300161</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.465946618652239</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.913956313770719</c:v>
+                  <c:v>2.432941380068138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.535624476172407</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.799615404969952</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.766145007834314</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.02501453988539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -382,14 +379,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Information</c:v>
+                  <c:v>Professional and business services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="D62728"/>
+              <a:srgbClr val="2A6866"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -426,19 +423,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.3868275487177875</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3667225107224711</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3336915707625608</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3416354717700262</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5235602167167412</c:v>
+                  <c:v>12.9332722438336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.911986572747754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.049261932971945</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.882521458967561</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.773599910444062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -453,14 +450,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leisure and hospitality</c:v>
+                  <c:v>Other services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="9467BD"/>
+              <a:srgbClr val="66DE78"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -497,19 +494,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.856313970247479</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.356663919418008</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.24721448451607</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.05620458594997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.016394298152</c:v>
+                  <c:v>2.417671927310268</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.535624476172407</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.347152309217233</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.746748953977444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.808662539581825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,14 +521,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Manufacturing</c:v>
+                  <c:v>Natural resources and mining</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="8C564B"/>
+              <a:srgbClr val="15974D"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -568,19 +565,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>26.32971952670258</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27.58801341223954</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27.80385723400466</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.07736391118357</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27.12993809372742</c:v>
+                  <c:v>0.8041940029513162</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8015507069558216</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8596799174032752</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8430680664370841</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8514464322342867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -595,14 +592,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Natural resources and mining</c:v>
+                  <c:v>Manufacturing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="E377C2"/>
+              <a:srgbClr val="B4D170"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -639,19 +636,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.8041940029513162</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8015507069558216</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8596799174032752</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8430680664370841</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8514464322342867</c:v>
+                  <c:v>26.32971952670258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.58801341223954</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.80385723400466</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.07736391118357</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.12993809372742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -666,14 +663,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Other services</c:v>
+                  <c:v>Leisure and hospitality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="7F7F7F"/>
+              <a:srgbClr val="683C00"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -710,19 +707,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.417671927310268</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.535624476172407</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.347152309217233</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.746748953977444</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.808662539581825</c:v>
+                  <c:v>8.856313970247479</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.356663919418008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.24721448451607</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.05620458594997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.016394298152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,14 +734,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Professional and business services</c:v>
+                  <c:v>Information</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="BCBD22"/>
+              <a:srgbClr val="CA7E54"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -781,19 +778,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>12.9332722438336</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.911986572747754</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.049261932971945</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.882521458967561</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.773599910444062</c:v>
+                  <c:v>0.3868275487177875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3667225107224711</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3336915707625608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3416354717700262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5235602167167412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,14 +805,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Public administration</c:v>
+                  <c:v>Financial activities</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="17BECF"/>
+              <a:srgbClr val="821F48"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -852,19 +849,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.432941380068138</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.535624476172407</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.799615404969952</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.766145007834314</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.02501453988539</c:v>
+                  <c:v>2.438031249427896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.64040234708863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.957977528300161</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.465946618652239</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.913956313770719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -879,14 +876,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Trade, transportation, and utilities</c:v>
+                  <c:v>Education and health services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="8DD3C7"/>
+              <a:srgbClr val="F65B68"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -923,19 +920,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>23.30635718398824</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23.84744342053065</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23.21701260081145</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23.39651753497872</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23.2746311014609</c:v>
+                  <c:v>17.05603907480773</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.31454317883232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.12680277359336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.40974213009041</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.4198000741623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,14 +947,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unclassified</c:v>
+                  <c:v>Construction</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FFFFB3"/>
+              <a:srgbClr val="EBCECB"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -994,16 +991,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01696732699791554</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01653076815951222</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.005288486957841604</c:v>
+                  <c:v>3.038631891944966</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.101424979119978</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.24076691645142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.997575491999153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.257707992906518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1048,7 +1048,6 @@
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1120,15 +1119,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1442,19 +1441,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="13" width="30.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1503,78 +1490,78 @@
         <v>2018</v>
       </c>
       <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>23.30635718398824</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.432941380068138</v>
+      </c>
+      <c r="E2" s="1">
+        <v>12.9332722438336</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.417671927310268</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.8041940029513162</v>
+      </c>
+      <c r="H2" s="1">
+        <v>26.32971952670258</v>
+      </c>
+      <c r="I2" s="1">
+        <v>8.856313970247479</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.3868275487177875</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2.438031249427896</v>
+      </c>
+      <c r="L2" s="1">
+        <v>17.05603907480773</v>
+      </c>
+      <c r="M2" s="1">
         <v>3.038631891944966</v>
-      </c>
-      <c r="C2" s="1">
-        <v>17.05603907480773</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2.438031249427896</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.3868275487177875</v>
-      </c>
-      <c r="F2" s="1">
-        <v>8.856313970247479</v>
-      </c>
-      <c r="G2" s="1">
-        <v>26.32971952670258</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.8041940029513162</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2.417671927310268</v>
-      </c>
-      <c r="J2" s="1">
-        <v>12.9332722438336</v>
-      </c>
-      <c r="K2" s="1">
-        <v>2.432941380068138</v>
-      </c>
-      <c r="L2" s="1">
-        <v>23.30635718398824</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>2019</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
+        <v>23.84744342053065</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.535624476172407</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9.911986572747754</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.535624476172407</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.8015507069558216</v>
+      </c>
+      <c r="H3" s="1">
+        <v>27.58801341223954</v>
+      </c>
+      <c r="I3" s="1">
+        <v>9.356663919418008</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.3667225107224711</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2.64040234708863</v>
+      </c>
+      <c r="L3" s="1">
+        <v>17.31454317883232</v>
+      </c>
+      <c r="M3" s="1">
         <v>3.101424979119978</v>
-      </c>
-      <c r="C3" s="1">
-        <v>17.31454317883232</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2.64040234708863</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.3667225107224711</v>
-      </c>
-      <c r="F3" s="1">
-        <v>9.356663919418008</v>
-      </c>
-      <c r="G3" s="1">
-        <v>27.58801341223954</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.8015507069558216</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2.535624476172407</v>
-      </c>
-      <c r="J3" s="1">
-        <v>9.911986572747754</v>
-      </c>
-      <c r="K3" s="1">
-        <v>2.535624476172407</v>
-      </c>
-      <c r="L3" s="1">
-        <v>23.84744342053065</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1582,40 +1569,40 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1">
+        <v>0.01696732699791554</v>
+      </c>
+      <c r="C4" s="1">
+        <v>23.21701260081145</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.799615404969952</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9.049261932971945</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.347152309217233</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.8596799174032752</v>
+      </c>
+      <c r="H4" s="1">
+        <v>27.80385723400466</v>
+      </c>
+      <c r="I4" s="1">
+        <v>9.24721448451607</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.3336915707625608</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.957977528300161</v>
+      </c>
+      <c r="L4" s="1">
+        <v>18.12680277359336</v>
+      </c>
+      <c r="M4" s="1">
         <v>3.24076691645142</v>
-      </c>
-      <c r="C4" s="1">
-        <v>18.12680277359336</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2.957977528300161</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.3336915707625608</v>
-      </c>
-      <c r="F4" s="1">
-        <v>9.24721448451607</v>
-      </c>
-      <c r="G4" s="1">
-        <v>27.80385723400466</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.8596799174032752</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2.347152309217233</v>
-      </c>
-      <c r="J4" s="1">
-        <v>9.049261932971945</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2.799615404969952</v>
-      </c>
-      <c r="L4" s="1">
-        <v>23.21701260081145</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.01696732699791554</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1623,40 +1610,40 @@
         <v>2021</v>
       </c>
       <c r="B5" s="1">
+        <v>0.01653076815951222</v>
+      </c>
+      <c r="C5" s="1">
+        <v>23.39651753497872</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.766145007834314</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8.882521458967561</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.746748953977444</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.8430680664370841</v>
+      </c>
+      <c r="H5" s="1">
+        <v>27.07736391118357</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10.05620458594997</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.3416354717700262</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3.465946618652239</v>
+      </c>
+      <c r="L5" s="1">
+        <v>18.40974213009041</v>
+      </c>
+      <c r="M5" s="1">
         <v>2.997575491999153</v>
-      </c>
-      <c r="C5" s="1">
-        <v>18.40974213009041</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3.465946618652239</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.3416354717700262</v>
-      </c>
-      <c r="F5" s="1">
-        <v>10.05620458594997</v>
-      </c>
-      <c r="G5" s="1">
-        <v>27.07736391118357</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.8430680664370841</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1.746748953977444</v>
-      </c>
-      <c r="J5" s="1">
-        <v>8.882521458967561</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2.766145007834314</v>
-      </c>
-      <c r="L5" s="1">
-        <v>23.39651753497872</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.01653076815951222</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1664,40 +1651,40 @@
         <v>2022</v>
       </c>
       <c r="B6" s="1">
+        <v>0.005288486957841604</v>
+      </c>
+      <c r="C6" s="1">
+        <v>23.2746311014609</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.02501453988539</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8.773599910444062</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.808662539581825</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.8514464322342867</v>
+      </c>
+      <c r="H6" s="1">
+        <v>27.12993809372742</v>
+      </c>
+      <c r="I6" s="1">
+        <v>10.016394298152</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.5235602167167412</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2.913956313770719</v>
+      </c>
+      <c r="L6" s="1">
+        <v>18.4198000741623</v>
+      </c>
+      <c r="M6" s="1">
         <v>3.257707992906518</v>
-      </c>
-      <c r="C6" s="1">
-        <v>18.4198000741623</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.913956313770719</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.5235602167167412</v>
-      </c>
-      <c r="F6" s="1">
-        <v>10.016394298152</v>
-      </c>
-      <c r="G6" s="1">
-        <v>27.12993809372742</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.8514464322342867</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1.808662539581825</v>
-      </c>
-      <c r="J6" s="1">
-        <v>8.773599910444062</v>
-      </c>
-      <c r="K6" s="1">
-        <v>3.02501453988539</v>
-      </c>
-      <c r="L6" s="1">
-        <v>23.2746311014609</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.005288486957841604</v>
       </c>
     </row>
   </sheetData>
